--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H2">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I2">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J2">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N2">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O2">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P2">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q2">
-        <v>1.941744334105</v>
+        <v>1.156024370362889</v>
       </c>
       <c r="R2">
-        <v>17.475699006945</v>
+        <v>10.404219333266</v>
       </c>
       <c r="S2">
-        <v>0.00020887811195558</v>
+        <v>0.0001068351630565664</v>
       </c>
       <c r="T2">
-        <v>0.0002289864349352986</v>
+        <v>0.0001139936359267984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H3">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I3">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J3">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>117.67466</v>
       </c>
       <c r="O3">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P3">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q3">
-        <v>8.9979928769</v>
+        <v>4.84271758282889</v>
       </c>
       <c r="R3">
-        <v>80.9819358921</v>
+        <v>43.58445824546001</v>
       </c>
       <c r="S3">
-        <v>0.000967935752665879</v>
+        <v>0.0004475446503225675</v>
       </c>
       <c r="T3">
-        <v>0.001061117199759587</v>
+        <v>0.0004775323074374379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H4">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I4">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J4">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N4">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O4">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P4">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q4">
-        <v>12.67880769815</v>
+        <v>8.800861836745002</v>
       </c>
       <c r="R4">
-        <v>114.10926928335</v>
+        <v>79.207756530705</v>
       </c>
       <c r="S4">
-        <v>0.001363889863007184</v>
+        <v>0.0008133405605210658</v>
       </c>
       <c r="T4">
-        <v>0.001495189105504862</v>
+        <v>0.0008678383136032289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H5">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I5">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J5">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N5">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O5">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P5">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q5">
-        <v>5.9057298870675</v>
+        <v>2.8481104421275</v>
       </c>
       <c r="R5">
-        <v>35.434379322405</v>
+        <v>17.088662652765</v>
       </c>
       <c r="S5">
-        <v>0.0006352935795220887</v>
+        <v>0.0002632110111937211</v>
       </c>
       <c r="T5">
-        <v>0.0004643014389271645</v>
+        <v>0.0001872316150320595</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H6">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I6">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J6">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N6">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O6">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P6">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q6">
-        <v>12.59169769964</v>
+        <v>10.03656125091767</v>
       </c>
       <c r="R6">
-        <v>113.32527929676</v>
+        <v>90.329051258259</v>
       </c>
       <c r="S6">
-        <v>0.00135451923078664</v>
+        <v>0.0009275389734495052</v>
       </c>
       <c r="T6">
-        <v>0.00148491637924751</v>
+        <v>0.0009896885727720204</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>131.577157</v>
       </c>
       <c r="I7">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J7">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N7">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O7">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P7">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q7">
-        <v>371.2507524900921</v>
+        <v>410.6754938160002</v>
       </c>
       <c r="R7">
-        <v>3341.256772410829</v>
+        <v>3696.079444344002</v>
       </c>
       <c r="S7">
-        <v>0.03993633707599399</v>
+        <v>0.03795299171019689</v>
       </c>
       <c r="T7">
-        <v>0.04378093695787046</v>
+        <v>0.04049602579868081</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>131.577157</v>
       </c>
       <c r="I8">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J8">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>117.67466</v>
       </c>
       <c r="O8">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P8">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q8">
         <v>1720.366357082402</v>
@@ -948,10 +948,10 @@
         <v>15483.29721374162</v>
       </c>
       <c r="S8">
-        <v>0.1850639500925355</v>
+        <v>0.1589893993482456</v>
       </c>
       <c r="T8">
-        <v>0.2028797262192109</v>
+        <v>0.1696424584097673</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>131.577157</v>
       </c>
       <c r="I9">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J9">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N9">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O9">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P9">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q9">
-        <v>2424.117746059986</v>
+        <v>3126.489694743265</v>
       </c>
       <c r="R9">
-        <v>21817.05971453987</v>
+        <v>28138.40725268938</v>
       </c>
       <c r="S9">
-        <v>0.2607681809914555</v>
+        <v>0.2889377117782723</v>
       </c>
       <c r="T9">
-        <v>0.2858718682907979</v>
+        <v>0.3082979365561065</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>131.577157</v>
       </c>
       <c r="I10">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J10">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N10">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O10">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P10">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q10">
-        <v>1129.14281559504</v>
+        <v>1011.785903696867</v>
       </c>
       <c r="R10">
-        <v>6774.856893570241</v>
+        <v>6070.715422181204</v>
       </c>
       <c r="S10">
-        <v>0.121464610611783</v>
+        <v>0.09350521906891823</v>
       </c>
       <c r="T10">
-        <v>0.08877186123650682</v>
+        <v>0.0665136807947407</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>131.577157</v>
       </c>
       <c r="I11">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J11">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N11">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O11">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P11">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q11">
-        <v>2407.46279724503</v>
+        <v>3565.469598743213</v>
       </c>
       <c r="R11">
-        <v>21667.16517520527</v>
+        <v>32089.22638868892</v>
       </c>
       <c r="S11">
-        <v>0.2589765680576198</v>
+        <v>0.3295064842235007</v>
       </c>
       <c r="T11">
-        <v>0.2839077799779437</v>
+        <v>0.3515850130560965</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H12">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I12">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J12">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.464632333333334</v>
+        <v>9.363528666666667</v>
       </c>
       <c r="N12">
-        <v>25.393897</v>
+        <v>28.090586</v>
       </c>
       <c r="O12">
-        <v>0.04610470135281236</v>
+        <v>0.04175743631338733</v>
       </c>
       <c r="P12">
-        <v>0.0483653868994476</v>
+        <v>0.04324026421082073</v>
       </c>
       <c r="Q12">
-        <v>55.39976585608134</v>
+        <v>40.01048440030367</v>
       </c>
       <c r="R12">
-        <v>332.398595136488</v>
+        <v>240.062906401822</v>
       </c>
       <c r="S12">
-        <v>0.005959486164862799</v>
+        <v>0.003697609440133884</v>
       </c>
       <c r="T12">
-        <v>0.004355463506641846</v>
+        <v>0.002630244776213114</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H13">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I13">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J13">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>117.67466</v>
       </c>
       <c r="O13">
-        <v>0.2136479901487249</v>
+        <v>0.1749266505387075</v>
       </c>
       <c r="P13">
-        <v>0.2241239483314023</v>
+        <v>0.1811383852696593</v>
       </c>
       <c r="Q13">
-        <v>256.7210779501067</v>
+        <v>167.6084702626367</v>
       </c>
       <c r="R13">
-        <v>1540.32646770064</v>
+        <v>1005.65082157582</v>
       </c>
       <c r="S13">
-        <v>0.02761610430352355</v>
+        <v>0.01548970654013929</v>
       </c>
       <c r="T13">
-        <v>0.02018310491243179</v>
+        <v>0.01101839455245449</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H14">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I14">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J14">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.27063666666667</v>
+        <v>71.284935</v>
       </c>
       <c r="N14">
-        <v>165.81191</v>
+        <v>213.854805</v>
       </c>
       <c r="O14">
-        <v>0.3010451129769252</v>
+        <v>0.3179011075133629</v>
       </c>
       <c r="P14">
-        <v>0.3158064782135008</v>
+        <v>0.3291899382573772</v>
       </c>
       <c r="Q14">
-        <v>361.7381369291067</v>
+        <v>304.6014896016225</v>
       </c>
       <c r="R14">
-        <v>2170.428821574641</v>
+        <v>1827.608937609735</v>
       </c>
       <c r="S14">
-        <v>0.03891304212246256</v>
+        <v>0.02815005517456955</v>
       </c>
       <c r="T14">
-        <v>0.02843942081719801</v>
+        <v>0.02002416338766746</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H15">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I15">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J15">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.7448065</v>
+        <v>23.0690325</v>
       </c>
       <c r="N15">
-        <v>51.48961300000001</v>
+        <v>46.138065</v>
       </c>
       <c r="O15">
-        <v>0.1402254189345309</v>
+        <v>0.1028782726814826</v>
       </c>
       <c r="P15">
-        <v>0.09806746298324463</v>
+        <v>0.07102102180339065</v>
       </c>
       <c r="Q15">
-        <v>168.495948311138</v>
+        <v>98.57428730443876</v>
       </c>
       <c r="R15">
-        <v>673.9837932445521</v>
+        <v>394.297149217755</v>
       </c>
       <c r="S15">
-        <v>0.01812551474322589</v>
+        <v>0.009109842601370655</v>
       </c>
       <c r="T15">
-        <v>0.008831300307810637</v>
+        <v>0.004320109393617886</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H16">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I16">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J16">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.89089866666666</v>
+        <v>81.293813</v>
       </c>
       <c r="N16">
-        <v>164.672696</v>
+        <v>243.881439</v>
       </c>
       <c r="O16">
-        <v>0.2989767765870066</v>
+        <v>0.3625365329530597</v>
       </c>
       <c r="P16">
-        <v>0.3136367235724047</v>
+        <v>0.3754103904587522</v>
       </c>
       <c r="Q16">
-        <v>359.2528079203307</v>
+        <v>347.3695604154755</v>
       </c>
       <c r="R16">
-        <v>2155.516847521984</v>
+        <v>2084.217362492853</v>
       </c>
       <c r="S16">
-        <v>0.03864568929860027</v>
+        <v>0.03210250975610961</v>
       </c>
       <c r="T16">
-        <v>0.02824402721521343</v>
+        <v>0.02283568882988369</v>
       </c>
     </row>
   </sheetData>
